--- a/data/需求更新_2024-12-24/首次导入模版-v1.1.xlsx
+++ b/data/需求更新_2024-12-24/首次导入模版-v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28422"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV2024\Larry\case_management\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV2024\Larry\case_management\data\需求更新_2024-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7A2C3-D945-411C-A725-73B46498412D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AAD1D4-603D-4BAF-8191-12907D326D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="558" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -898,7 +898,10 @@
     <col min="10" max="10" width="54.625" style="1" customWidth="1"/>
     <col min="11" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="29.625" style="1" customWidth="1"/>
-    <col min="17" max="26" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="9" style="1" customWidth="1"/>
     <col min="27" max="27" width="10.625" style="2" customWidth="1"/>
     <col min="28" max="28" width="9" style="1" customWidth="1"/>
     <col min="29" max="32" width="13.125" style="1" customWidth="1"/>
